--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem4/17/correct_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem4/17/correct_predictions_17.xlsx
@@ -677,21 +677,21 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this error persists after restarting</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10-18</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -707,21 +707,21 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Please fly with caution</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11-25</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -737,21 +737,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
+          <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Please fly with caution</t>
+          <t>Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8-11</t>
+          <t>10-16</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -797,21 +797,21 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>6-11</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -857,21 +857,21 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
+          <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -887,21 +887,21 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GPS signal weak Hovering unstable Fly with caution .</t>
+          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>8-15</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem4/17/correct_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem4/17/correct_predictions_17.xlsx
@@ -677,21 +677,21 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>10-18</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -707,21 +707,21 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
+          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Please fly with caution</t>
+          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8-11</t>
+          <t>11-25</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -737,21 +737,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
+          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ensure you have obtained proper airspace authorization</t>
+          <t>Please fly with caution</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10-16</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -797,21 +797,21 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Return the aircraft to home manually</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6-11</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -857,21 +857,21 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GPS signal weak Hovering unstable Fly with caution .</t>
+          <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -887,21 +887,21 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
+          <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and manually return to home</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>8-15</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
